--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_222__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_222__Reeval_Sobol_Modell_1.1.xlsx
@@ -6124,16 +6124,16 @@
                   <c:v>46.50798034667969</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.41974639892578</c:v>
+                  <c:v>35.41974258422852</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7218974828720093</c:v>
+                  <c:v>0.721895158290863</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>41.39620208740234</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2445577383041382</c:v>
+                  <c:v>0.2445600181818008</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>45.60107040405273</c:v>
@@ -6145,37 +6145,37 @@
                   <c:v>50.69820785522461</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.61353302001953</c:v>
+                  <c:v>47.61352920532227</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7218974828720093</c:v>
+                  <c:v>0.721895158290863</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.7218974828720093</c:v>
+                  <c:v>0.721895158290863</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.059222936630249</c:v>
+                  <c:v>-1.05922520160675</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>47.67588424682617</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47.53622817993164</c:v>
+                  <c:v>47.53622436523438</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>48.77592086791992</c:v>
+                  <c:v>48.77590942382812</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>48.30565643310547</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44.80447769165039</c:v>
+                  <c:v>44.80448532104492</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48.39441299438477</c:v>
+                  <c:v>48.3944091796875</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48.48645401000977</c:v>
+                  <c:v>48.48645782470703</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>38.84197998046875</c:v>
@@ -6184,7 +6184,7 @@
                   <c:v>47.09818267822266</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.7218974828720093</c:v>
+                  <c:v>0.721895158290863</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45.43127822875977</c:v>
@@ -6193,16 +6193,16 @@
                   <c:v>48.81040191650391</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.01828364655375481</c:v>
+                  <c:v>-0.01828136667609215</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4.67251443862915</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7218974828720093</c:v>
+                  <c:v>0.721895158290863</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>49.38109588623047</c:v>
+                  <c:v>49.38109970092773</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>47.65614700317383</c:v>
@@ -6214,25 +6214,25 @@
                   <c:v>0.2105411738157272</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.383906364440918</c:v>
+                  <c:v>2.383903980255127</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.499970197677612</c:v>
+                  <c:v>-1.499972581863403</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.7218974828720093</c:v>
+                  <c:v>0.721895158290863</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.7218974828720093</c:v>
+                  <c:v>0.721895158290863</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.7218974828720093</c:v>
+                  <c:v>0.721895158290863</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.9148684740066528</c:v>
+                  <c:v>-0.9148707389831543</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>50.6678352355957</c:v>
+                  <c:v>50.66783905029297</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44.54155349731445</c:v>
@@ -6241,40 +6241,40 @@
                   <c:v>39.07899856567383</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.481753349304199</c:v>
+                  <c:v>6.481752395629883</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.370965480804443</c:v>
+                  <c:v>5.370967864990234</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>49.39949798583984</c:v>
+                  <c:v>49.39949035644531</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>48.17660903930664</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.1736501902341843</c:v>
+                  <c:v>-0.1736479103565216</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>23.87939262390137</c:v>
+                  <c:v>23.8793888092041</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45.64707946777344</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43.27016830444336</c:v>
+                  <c:v>43.27016448974609</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>46.6910400390625</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.4582673907279968</c:v>
+                  <c:v>-0.458265095949173</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>48.13701248168945</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.7218974828720093</c:v>
+                  <c:v>0.721895158290863</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>41.0155029296875</c:v>
@@ -6289,7 +6289,7 @@
                   <c:v>27.12442016601562</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.46773624420166</c:v>
+                  <c:v>1.467740774154663</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>48.99973678588867</c:v>
@@ -6304,52 +6304,52 @@
                   <c:v>42.3514289855957</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.7218974828720093</c:v>
+                  <c:v>0.721895158290863</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>49.8336181640625</c:v>
+                  <c:v>49.83361434936523</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>47.7313232421875</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.7218974828720093</c:v>
+                  <c:v>0.721895158290863</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.08573778718709946</c:v>
+                  <c:v>0.08574006706476212</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.7218974828720093</c:v>
+                  <c:v>0.721895158290863</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>38.33723068237305</c:v>
+                  <c:v>38.33723449707031</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>-1.186978220939636</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.7218974828720093</c:v>
+                  <c:v>0.721895158290863</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.7218974828720093</c:v>
+                  <c:v>0.721895158290863</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>47.11734008789062</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>48.25538635253906</c:v>
+                  <c:v>48.25539779663086</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.7218974828720093</c:v>
+                  <c:v>0.721895158290863</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-1.016544342041016</c:v>
+                  <c:v>-1.016548871994019</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>47.74535751342773</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>14.72097015380859</c:v>
+                  <c:v>14.72096729278564</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45.69579696655273</c:v>
@@ -6358,43 +6358,43 @@
                   <c:v>43.92766571044922</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>45.16205215454102</c:v>
+                  <c:v>45.16204833984375</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>3.80279803276062</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.7218974828720093</c:v>
+                  <c:v>0.721895158290863</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>18.61542701721191</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>46.79106140136719</c:v>
+                  <c:v>46.79105377197266</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>46.7314338684082</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>21.07962036132812</c:v>
+                  <c:v>21.07961654663086</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.9875950217247009</c:v>
+                  <c:v>0.9875927567481995</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>44.17620849609375</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.7218974828720093</c:v>
+                  <c:v>0.721895158290863</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.7218974828720093</c:v>
+                  <c:v>0.721895158290863</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>48.99822998046875</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>47.43654632568359</c:v>
+                  <c:v>47.43654251098633</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>44.43075561523438</c:v>
@@ -6406,22 +6406,22 @@
                   <c:v>-0.1240488812327385</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.7218974828720093</c:v>
+                  <c:v>0.721895158290863</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>47.4227409362793</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>48.34613037109375</c:v>
+                  <c:v>48.34613418579102</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>40.0479621887207</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>47.56296157836914</c:v>
+                  <c:v>47.56295776367188</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>46.56507873535156</c:v>
+                  <c:v>46.56508255004883</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>0.4937496483325958</c:v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.41974639892578</v>
+        <v>35.41974258422852</v>
       </c>
       <c r="G4">
         <v>77</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7218974828720093</v>
+        <v>0.721895158290863</v>
       </c>
       <c r="G5">
         <v>77</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2445577383041382</v>
+        <v>0.2445600181818008</v>
       </c>
       <c r="G7">
         <v>77</v>
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>47.61353302001953</v>
+        <v>47.61352920532227</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7218974828720093</v>
+        <v>0.721895158290863</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7218974828720093</v>
+        <v>0.721895158290863</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-1.059222936630249</v>
+        <v>-1.05922520160675</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>26.5051</v>
       </c>
       <c r="F16">
-        <v>47.53622817993164</v>
+        <v>47.53622436523438</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>51.572</v>
       </c>
       <c r="F17">
-        <v>48.77592086791992</v>
+        <v>48.77590942382812</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>44.80447769165039</v>
+        <v>44.80448532104492</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>45.5233</v>
       </c>
       <c r="F20">
-        <v>48.39441299438477</v>
+        <v>48.3944091796875</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>51.6611</v>
       </c>
       <c r="F21">
-        <v>48.48645401000977</v>
+        <v>48.48645782470703</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7218974828720093</v>
+        <v>0.721895158290863</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-0.01828364655375481</v>
+        <v>-0.01828136667609215</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0.7218974828720093</v>
+        <v>0.721895158290863</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>51.3308</v>
       </c>
       <c r="F30">
-        <v>49.38109588623047</v>
+        <v>49.38109970092773</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>2.383906364440918</v>
+        <v>2.383903980255127</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-1.499970197677612</v>
+        <v>-1.499972581863403</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.7218974828720093</v>
+        <v>0.721895158290863</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0.7218974828720093</v>
+        <v>0.721895158290863</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.7218974828720093</v>
+        <v>0.721895158290863</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-0.9148684740066528</v>
+        <v>-0.9148707389831543</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>50.7435</v>
       </c>
       <c r="F40">
-        <v>50.6678352355957</v>
+        <v>50.66783905029297</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>6.481753349304199</v>
+        <v>6.481752395629883</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>5.370965480804443</v>
+        <v>5.370967864990234</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>61.4498</v>
       </c>
       <c r="F45">
-        <v>49.39949798583984</v>
+        <v>49.39949035644531</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-0.1736501902341843</v>
+        <v>-0.1736479103565216</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>60.9577</v>
       </c>
       <c r="F48">
-        <v>23.87939262390137</v>
+        <v>23.8793888092041</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>43.27016830444336</v>
+        <v>43.27016448974609</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>-0.4582673907279968</v>
+        <v>-0.458265095949173</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.7218974828720093</v>
+        <v>0.721895158290863</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>46.476</v>
       </c>
       <c r="F59">
-        <v>1.46773624420166</v>
+        <v>1.467740774154663</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0.7218974828720093</v>
+        <v>0.721895158290863</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>51.173</v>
       </c>
       <c r="F65">
-        <v>49.8336181640625</v>
+        <v>49.83361434936523</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.7218974828720093</v>
+        <v>0.721895158290863</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0.08573778718709946</v>
+        <v>0.08574006706476212</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.7218974828720093</v>
+        <v>0.721895158290863</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>38.2901</v>
       </c>
       <c r="F70">
-        <v>38.33723068237305</v>
+        <v>38.33723449707031</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0.7218974828720093</v>
+        <v>0.721895158290863</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.7218974828720093</v>
+        <v>0.721895158290863</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>48.25538635253906</v>
+        <v>48.25539779663086</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.7218974828720093</v>
+        <v>0.721895158290863</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>-1.016544342041016</v>
+        <v>-1.016548871994019</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>14.72097015380859</v>
+        <v>14.72096729278564</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>40.8214</v>
       </c>
       <c r="F82">
-        <v>45.16205215454102</v>
+        <v>45.16204833984375</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.7218974828720093</v>
+        <v>0.721895158290863</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>45.8522</v>
       </c>
       <c r="F86">
-        <v>46.79106140136719</v>
+        <v>46.79105377197266</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>47.2348</v>
       </c>
       <c r="F88">
-        <v>21.07962036132812</v>
+        <v>21.07961654663086</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.9875950217247009</v>
+        <v>0.9875927567481995</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.7218974828720093</v>
+        <v>0.721895158290863</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0.7218974828720093</v>
+        <v>0.721895158290863</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>51.117</v>
       </c>
       <c r="F94">
-        <v>47.43654632568359</v>
+        <v>47.43654251098633</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0.7218974828720093</v>
+        <v>0.721895158290863</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>46.0374</v>
       </c>
       <c r="F100">
-        <v>48.34613037109375</v>
+        <v>48.34613418579102</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>44.8161</v>
       </c>
       <c r="F102">
-        <v>47.56296157836914</v>
+        <v>47.56295776367188</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>58.1678</v>
       </c>
       <c r="F103">
-        <v>46.56507873535156</v>
+        <v>46.56508255004883</v>
       </c>
     </row>
     <row r="104" spans="1:6">
